--- a/data/trans_dic/P22$mutaSS-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.006014682703122837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03756708471907317</v>
+        <v>0.03756708471907318</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.008576906191853775</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02398634566143517</v>
+        <v>0.0222906081633319</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008660046131855404</v>
+        <v>0.008471907860368158</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02139547326772725</v>
+        <v>0.02302060189471176</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004309041872063653</v>
+        <v>0.004340959254853254</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003608867485933711</v>
+        <v>0.003554766498938803</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02099607667328282</v>
+        <v>0.02097084282538706</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01521539531065874</v>
+        <v>0.01386688761884714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009442782910871883</v>
+        <v>0.008213475327887224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004462582455033075</v>
+        <v>0.00430269716981118</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0240519687982123</v>
+        <v>0.0244528029995537</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07204888558403555</v>
+        <v>0.07011297558471588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04079872625102895</v>
+        <v>0.04068966044851475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02061639356751879</v>
+        <v>0.02034560628604622</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06136932397590957</v>
+        <v>0.06454131690953872</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03116463879636439</v>
+        <v>0.0302473118963903</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03986731059171266</v>
+        <v>0.03733874279052144</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03970196983328508</v>
+        <v>0.03871793738168425</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04708701192119949</v>
+        <v>0.04992333765377268</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04141122963589332</v>
+        <v>0.04215826244401586</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03019045647230039</v>
+        <v>0.03091030567558102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02344960607695823</v>
+        <v>0.02468793125520114</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04765865420592245</v>
+        <v>0.04819002334420741</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.008280394559305515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04458744562636236</v>
+        <v>0.04458744562636235</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02501312211562095</v>
@@ -833,7 +833,7 @@
         <v>0.00721866094882595</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03440123459459509</v>
+        <v>0.0344012345945951</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02116843425944762</v>
+        <v>0.02099420627952045</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01551334596828475</v>
+        <v>0.01570076481522737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002060029226298374</v>
+        <v>0.00205118386302649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02535687373578911</v>
+        <v>0.02665626176978775</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01265437126685282</v>
+        <v>0.01313398954152103</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00628463971158839</v>
+        <v>0.006155001513167982</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001900648124196686</v>
+        <v>0.001879346936566819</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01569893509526203</v>
+        <v>0.01508403587405073</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02020174849087392</v>
+        <v>0.02073989782621589</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01367333390113125</v>
+        <v>0.01359868288865443</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003114049749745336</v>
+        <v>0.003131901006333762</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02301853425621958</v>
+        <v>0.02274730847497652</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05628582112170903</v>
+        <v>0.05758436332224949</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05175090701175807</v>
+        <v>0.05457499868832544</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02071660173531217</v>
+        <v>0.02080759855138855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07239587797269752</v>
+        <v>0.07411507020450266</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04085813828510037</v>
+        <v>0.04014136618840898</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03092046862889922</v>
+        <v>0.03119645155285948</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01666807114408796</v>
+        <v>0.01895388098087235</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03740843397503097</v>
+        <v>0.03789463142455056</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04285870757249792</v>
+        <v>0.04351686614038516</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0364790675554978</v>
+        <v>0.03407550981796802</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01352849373000289</v>
+        <v>0.01461369294609318</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04867524511570186</v>
+        <v>0.04855736850890971</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.00796964433229142</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.009770861390756405</v>
+        <v>0.009770861390756407</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02310918121909929</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01722570094093755</v>
+        <v>0.01479039747790939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02639208229499994</v>
+        <v>0.02457998708859671</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01481206285148236</v>
+        <v>0.01502390817842154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005781705079675433</v>
+        <v>0.004997689962473624</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005516280481697119</v>
+        <v>0.005513524907801928</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01793763677126835</v>
+        <v>0.01865921462673349</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002553036446546531</v>
+        <v>0.002534109687018341</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00343226300202673</v>
+        <v>0.003386506252849783</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01310355256910846</v>
+        <v>0.01320378242612234</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02680650858585894</v>
+        <v>0.02657200376735827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01084318642368482</v>
+        <v>0.01087366331535745</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006900928992543813</v>
+        <v>0.006812979402019803</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05867657807184787</v>
+        <v>0.0584342575868438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07500028253598669</v>
+        <v>0.07363268255585598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05937156231335751</v>
+        <v>0.05639712180460574</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03911979316202187</v>
+        <v>0.03749489787820467</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03019774375777032</v>
+        <v>0.0323868331734987</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06435564100752136</v>
+        <v>0.06278530335371478</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02367140765513477</v>
+        <v>0.02149906196255886</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0199185085805454</v>
+        <v>0.02018199217665852</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03778740757724362</v>
+        <v>0.03805529660331694</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05806318014298213</v>
+        <v>0.05735627974850085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03329671521154007</v>
+        <v>0.03026656753096817</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02387381363894203</v>
+        <v>0.02334041942780884</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.026576263197078</v>
+        <v>0.02793505547580051</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01008787493666583</v>
+        <v>0.008195215979121557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005521814131664944</v>
+        <v>0.005554928697618471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005884029225934973</v>
+        <v>0.00566765407641982</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007483356694773423</v>
+        <v>0.007700021216330021</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01543897352096404</v>
+        <v>0.01501006121194742</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005268584569732645</v>
+        <v>0.005786476356536212</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02086155562025647</v>
+        <v>0.02076079881016086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01515173519729726</v>
+        <v>0.01547760837453748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00506101746402956</v>
+        <v>0.004837121634717115</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.00775382916901443</v>
+        <v>0.008057858902730919</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07719855462193281</v>
+        <v>0.07471080200062725</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04303557539018568</v>
+        <v>0.04300213665471707</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03174389280858702</v>
+        <v>0.03327468147818666</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03831577722435184</v>
+        <v>0.03643806839267773</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03788365984499585</v>
+        <v>0.0339722191602625</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04702244053459084</v>
+        <v>0.04775912247172706</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01947241164402162</v>
+        <v>0.01864920852491275</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02217592475695626</v>
+        <v>0.02277737978613893</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04928293011470709</v>
+        <v>0.04768382407016796</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03951408497972114</v>
+        <v>0.03844131104418959</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01958517049179373</v>
+        <v>0.01899615880485587</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02531107411124148</v>
+        <v>0.02505316043986875</v>
       </c>
     </row>
     <row r="16">
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05029824487187069</v>
+        <v>0.0506593253955258</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004277685289201473</v>
+        <v>0.004286715795214646</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01454443606390431</v>
+        <v>0.01418023709551217</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04949382755358956</v>
+        <v>0.04654368026695574</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01330042381197329</v>
+        <v>0.01280049258707149</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0551260673122573</v>
+        <v>0.05537129662962369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004390820782807336</v>
+        <v>0.00444484962416032</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01703123257213675</v>
+        <v>0.01733434578341023</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1323641010701136</v>
+        <v>0.1348506930087647</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03721475588504933</v>
+        <v>0.03767447449284275</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02235277377659224</v>
+        <v>0.02014981462203963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05753345660427115</v>
+        <v>0.05292377170467279</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1258091624813684</v>
+        <v>0.1264026561661653</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02711301748490117</v>
+        <v>0.02938027589254163</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02198014046421924</v>
+        <v>0.01838003521350788</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04025682530767637</v>
+        <v>0.04008079516848388</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1140726560901135</v>
+        <v>0.1141521453122837</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02560667701811403</v>
+        <v>0.02544307550540287</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01294288665109663</v>
+        <v>0.01548774164360336</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04037554538606968</v>
+        <v>0.0405652630158559</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.01854335072469642</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0198870037217715</v>
+        <v>0.01988700372177149</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03577281457953298</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0257906765992299</v>
+        <v>0.02529904018363943</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02233316317320079</v>
+        <v>0.02279221967676765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03334502018230882</v>
+        <v>0.03485418656690916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01846873300548003</v>
+        <v>0.01619522948169047</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01042369500684522</v>
+        <v>0.01072821240059987</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.006805199749584415</v>
+        <v>0.006964590089984818</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.00710752492748154</v>
+        <v>0.006790944263999232</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.009027531027078274</v>
+        <v>0.008480248045093067</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02176310822216862</v>
+        <v>0.02245059361913151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01827792470728856</v>
+        <v>0.01751827285061507</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02453394464782331</v>
+        <v>0.02560924589801066</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01557330805201122</v>
+        <v>0.01648755463508501</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0844163049631077</v>
+        <v>0.07853112839472709</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08587908755393539</v>
+        <v>0.08674454980167247</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09605236142969463</v>
+        <v>0.1008121421141262</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0647683743641785</v>
+        <v>0.05946490068922311</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04970742633097869</v>
+        <v>0.05203685582255627</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03940078966597776</v>
+        <v>0.04264001851070268</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04238050393854919</v>
+        <v>0.04082211690871878</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03978397795034023</v>
+        <v>0.03771231665908954</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05538231478628469</v>
+        <v>0.05519748733516518</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05329616016893448</v>
+        <v>0.05285316791121956</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05975795902180853</v>
+        <v>0.06017058463193252</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04023965316840974</v>
+        <v>0.04302225970150916</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.01670571388929731</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.01084423687744896</v>
+        <v>0.01084423687744897</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.02129055993555405</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01036199881424475</v>
+        <v>0.01050235691705677</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02003651704785992</v>
+        <v>0.01826568766906354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01115084200167552</v>
+        <v>0.010761158724577</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.009580074724113808</v>
+        <v>0.01097392813257188</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01346174223009462</v>
+        <v>0.01455259499485029</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01279851621391045</v>
+        <v>0.01181401111845593</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.007998951215898185</v>
+        <v>0.009001334954196503</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.006002275517552436</v>
+        <v>0.006210614878987176</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01401295768379831</v>
+        <v>0.01386103900652499</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01890816628478226</v>
+        <v>0.01829590330296974</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0117300598989099</v>
+        <v>0.01247823889239642</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01014847360806718</v>
+        <v>0.01000260537163093</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03115889812008796</v>
+        <v>0.03114728916256642</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04889860807362612</v>
+        <v>0.04905482035204729</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03656494120789872</v>
+        <v>0.03472509289420426</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03807801665962113</v>
+        <v>0.03646840652418703</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03906507283059948</v>
+        <v>0.03898073109158177</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0390730474953743</v>
+        <v>0.04043782306883224</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02734531869330019</v>
+        <v>0.02927052356956836</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0184808167262266</v>
+        <v>0.01939153939235446</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03048912431263133</v>
+        <v>0.03042016620447304</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03816034295535704</v>
+        <v>0.03795762465587846</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02711702469134469</v>
+        <v>0.0286368214027524</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0256902664266863</v>
+        <v>0.02404014780672694</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01777357798321277</v>
+        <v>0.01674505193042837</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.006425898549437366</v>
+        <v>0.006509838096611733</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02061173486702458</v>
+        <v>0.02183070979940399</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01110655824897094</v>
+        <v>0.01138831861138171</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04642345439369436</v>
+        <v>0.04415603218931651</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01010659213003481</v>
+        <v>0.01118891938823123</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01000693635607223</v>
+        <v>0.010752846085267</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.009769831519561087</v>
+        <v>0.009990355791877513</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03454439632982942</v>
+        <v>0.03510577202602585</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01069646267287131</v>
+        <v>0.01076169266042185</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01874923921183724</v>
+        <v>0.01754437000334596</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01223207480920655</v>
+        <v>0.01236026959660275</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04098568838638003</v>
+        <v>0.04126430385671136</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02283811961341995</v>
+        <v>0.02329561231870814</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04708125002424734</v>
+        <v>0.04714092093690237</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03121406149073216</v>
+        <v>0.03011149890097189</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08179294060360801</v>
+        <v>0.08133228692649447</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03393527984428654</v>
+        <v>0.03218786686888049</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03213191922823646</v>
+        <v>0.03496303850402547</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0257206212285938</v>
+        <v>0.02535025323034709</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05611922974566819</v>
+        <v>0.05633290007891825</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02451379389782413</v>
+        <v>0.02430703097868412</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03500996671153409</v>
+        <v>0.03459746437234679</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02421390956636529</v>
+        <v>0.02436699576409962</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.01778038187995708</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.02161554668203062</v>
+        <v>0.0216155466820306</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02916644090294719</v>
+        <v>0.02919437187652395</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02094055811079893</v>
+        <v>0.02046085171917326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01812832959975655</v>
+        <v>0.01751972059232306</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02052006300126188</v>
+        <v>0.02040361820339289</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02800247670926981</v>
+        <v>0.028294987091663</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01638811211214173</v>
+        <v>0.01606869471503989</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.009632618333805932</v>
+        <v>0.009333127085749073</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01417469314610329</v>
+        <v>0.01414620878220927</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03022228843241527</v>
+        <v>0.03001014270192888</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01967704752396286</v>
+        <v>0.01973220308360832</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01470134099278013</v>
+        <v>0.01502506327659705</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01868242915104561</v>
+        <v>0.01851894443806071</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04328936756473852</v>
+        <v>0.04271643767966293</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03266037997949551</v>
+        <v>0.03253411639901407</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02813095491986593</v>
+        <v>0.02894674940122746</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03258275211582829</v>
+        <v>0.03198836988934792</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03951868277524719</v>
+        <v>0.04042302780574287</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02631232518745829</v>
+        <v>0.0256841587130285</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01727917824239959</v>
+        <v>0.01697451039420108</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0207172151747542</v>
+        <v>0.02074277396815448</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03919773880154181</v>
+        <v>0.03937578291486978</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02745895654768443</v>
+        <v>0.02740644164318788</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02120661281498417</v>
+        <v>0.02148627272066548</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.02538084475215106</v>
+        <v>0.02520091799938863</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6526</v>
+        <v>6065</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2552</v>
+        <v>2497</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6822</v>
+        <v>7340</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6636</v>
+        <v>6628</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8109</v>
+        <v>7390</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5496</v>
+        <v>4780</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2595</v>
+        <v>2502</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15271</v>
+        <v>15525</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19603</v>
+        <v>19077</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12025</v>
+        <v>11993</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6056</v>
+        <v>5977</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19567</v>
+        <v>20579</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8129</v>
+        <v>7890</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11452</v>
+        <v>10725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11423</v>
+        <v>11140</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14882</v>
+        <v>15779</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22069</v>
+        <v>22467</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>17570</v>
+        <v>17989</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13636</v>
+        <v>14356</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>30259</v>
+        <v>30596</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10438</v>
+        <v>10352</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7827</v>
+        <v>7922</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13456</v>
+        <v>14145</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6377</v>
+        <v>6619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3292</v>
+        <v>3224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8579</v>
+        <v>8243</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20142</v>
+        <v>20678</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>14060</v>
+        <v>13984</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3194</v>
+        <v>3212</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>24794</v>
+        <v>24502</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27753</v>
+        <v>28393</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26111</v>
+        <v>27536</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10412</v>
+        <v>10457</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38417</v>
+        <v>39329</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20590</v>
+        <v>20229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16195</v>
+        <v>16340</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8719</v>
+        <v>9914</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20443</v>
+        <v>20709</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>42731</v>
+        <v>43387</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>37512</v>
+        <v>35040</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13876</v>
+        <v>14989</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>52430</v>
+        <v>52303</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5492</v>
+        <v>4716</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8552</v>
+        <v>7965</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4690</v>
+        <v>4758</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1827</v>
+        <v>1579</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6117</v>
+        <v>6363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8573</v>
+        <v>8639</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17828</v>
+        <v>17672</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7080</v>
+        <v>7100</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4640</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18709</v>
+        <v>18632</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24304</v>
+        <v>23860</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18801</v>
+        <v>17859</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12362</v>
+        <v>11848</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10129</v>
+        <v>10863</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21947</v>
+        <v>21411</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7961</v>
+        <v>7230</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7099</v>
+        <v>7192</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24723</v>
+        <v>24898</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38616</v>
+        <v>38146</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21742</v>
+        <v>19763</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16052</v>
+        <v>15694</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9475</v>
+        <v>9959</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3773</v>
+        <v>3065</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2043</v>
+        <v>2055</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2196</v>
+        <v>2115</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2773</v>
+        <v>2854</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6005</v>
+        <v>5838</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2223</v>
+        <v>2442</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15169</v>
+        <v>15096</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11560</v>
+        <v>11808</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3832</v>
+        <v>3663</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6165</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27522</v>
+        <v>26636</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16095</v>
+        <v>16082</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11744</v>
+        <v>12310</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14297</v>
+        <v>13597</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14040</v>
+        <v>12590</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18289</v>
+        <v>18576</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7541</v>
+        <v>7223</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>9357</v>
+        <v>9611</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35835</v>
+        <v>34672</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>30147</v>
+        <v>29328</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14831</v>
+        <v>14385</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20125</v>
+        <v>19920</v>
       </c>
     </row>
     <row r="20">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10226</v>
+        <v>10299</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2991</v>
+        <v>2916</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10278</v>
+        <v>9666</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2889,19 +2889,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3022</v>
+        <v>2908</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22655</v>
+        <v>22756</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1898</v>
+        <v>1921</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7372</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26911</v>
+        <v>27416</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7913</v>
+        <v>8010</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4721</v>
+        <v>4256</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11833</v>
+        <v>10885</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26127</v>
+        <v>26250</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5954</v>
+        <v>6452</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4805</v>
+        <v>4018</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>9147</v>
+        <v>9107</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>46881</v>
+        <v>46914</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>11067</v>
+        <v>10997</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5563</v>
+        <v>6657</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>17478</v>
+        <v>17560</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6984</v>
+        <v>6851</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6119</v>
+        <v>6245</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>8774</v>
+        <v>9171</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5000</v>
+        <v>4384</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2899</v>
+        <v>2984</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1906</v>
+        <v>1950</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1941</v>
+        <v>1855</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2381</v>
+        <v>2237</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11947</v>
+        <v>12324</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>10126</v>
+        <v>9705</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>13156</v>
+        <v>13733</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>8323</v>
+        <v>8812</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22861</v>
+        <v>21267</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23529</v>
+        <v>23766</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25274</v>
+        <v>26526</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17533</v>
+        <v>16098</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13826</v>
+        <v>14474</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11033</v>
+        <v>11941</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11575</v>
+        <v>11149</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10493</v>
+        <v>9947</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>30402</v>
+        <v>30301</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>29527</v>
+        <v>29281</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>32044</v>
+        <v>32266</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>21506</v>
+        <v>22994</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6363</v>
+        <v>6449</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13280</v>
+        <v>12106</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7288</v>
+        <v>7033</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6895</v>
+        <v>7898</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8576</v>
+        <v>9271</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8880</v>
+        <v>8197</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5491</v>
+        <v>6179</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4628</v>
+        <v>4788</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>17531</v>
+        <v>17341</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>25652</v>
+        <v>24821</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>15718</v>
+        <v>16721</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>15128</v>
+        <v>14911</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19132</v>
+        <v>19125</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32409</v>
+        <v>32513</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23897</v>
+        <v>22694</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>27404</v>
+        <v>26246</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>24886</v>
+        <v>24832</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27111</v>
+        <v>28058</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>18772</v>
+        <v>20093</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>14249</v>
+        <v>14951</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>38144</v>
+        <v>38058</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>51770</v>
+        <v>51495</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>36337</v>
+        <v>38374</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>38296</v>
+        <v>35836</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>13179</v>
+        <v>12416</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>5006</v>
+        <v>5072</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>16048</v>
+        <v>16997</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8864</v>
+        <v>9089</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>36373</v>
+        <v>34597</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>8326</v>
+        <v>9218</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>8267</v>
+        <v>8884</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>8115</v>
+        <v>8298</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>52680</v>
+        <v>53536</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>17146</v>
+        <v>17250</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>30088</v>
+        <v>28154</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>19922</v>
+        <v>20131</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>30390</v>
+        <v>30596</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>17793</v>
+        <v>18150</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>36657</v>
+        <v>36703</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>24911</v>
+        <v>24031</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>64086</v>
+        <v>63725</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>27958</v>
+        <v>26518</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>26546</v>
+        <v>28885</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>21364</v>
+        <v>21056</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>85581</v>
+        <v>85907</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>39294</v>
+        <v>38963</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>56182</v>
+        <v>55520</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>39437</v>
+        <v>39686</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>95378</v>
+        <v>95470</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>71738</v>
+        <v>70095</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>61445</v>
+        <v>59382</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>72492</v>
+        <v>72081</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>94569</v>
+        <v>95557</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>58314</v>
+        <v>57177</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>34087</v>
+        <v>33027</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>52921</v>
+        <v>52814</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>200897</v>
+        <v>199487</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>137427</v>
+        <v>137812</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>101853</v>
+        <v>104096</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>135751</v>
+        <v>134563</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>141562</v>
+        <v>139689</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>111888</v>
+        <v>111455</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>95348</v>
+        <v>98113</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>115107</v>
+        <v>113007</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>133461</v>
+        <v>136515</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>93627</v>
+        <v>91392</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>61146</v>
+        <v>60068</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>77347</v>
+        <v>77442</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>260559</v>
+        <v>261743</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>191776</v>
+        <v>191410</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>146923</v>
+        <v>148861</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>184423</v>
+        <v>183116</v>
       </c>
     </row>
     <row r="40">
